--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620190.839427386</v>
+        <v>1614469.227459501</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>292.4370503657299</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>143.9481875210546</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>153.8100533453329</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.0891638436807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>58.73196994276498</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>345.9387992945997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>80.67223366779493</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>86.01219339081315</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>366.6934426054956</v>
+        <v>50.79855216526428</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>139.6528551206849</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>177.9498744325401</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>6.38006817584762</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>91.32164802801761</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,13 +1587,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>84.69473660442846</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>84.69473660442802</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>53.4522744295482</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>269.737655763357</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>6.380068175847634</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.31468638489521</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X34" t="n">
-        <v>142.6955872305738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>67.33742371513297</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>2.451579104186333</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>116.1222167975246</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>210.6180377869401</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>37.38100496017532</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2075.803581887074</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>2075.803581887074</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1717.537883280324</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>1331.749630682079</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
-        <v>920.7637258924717</v>
+        <v>944.5037195034016</v>
       </c>
       <c r="G2" t="n">
-        <v>502.7999177906586</v>
+        <v>526.5399114015885</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>199.3451914375913</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>942.2179168761943</v>
+        <v>1154.375564375168</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1154.375564375168</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>796.1098657684179</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>410.3216131701736</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>403.3761124209702</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>1718.957088916128</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.817756940316</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.841510736975</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C7" t="n">
-        <v>383.841510736975</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>181.0866109681745</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>181.0866109681745</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>181.0866109681745</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>181.0866109681745</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>181.0866109681745</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>611.8310616349924</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>383.841510736975</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.841510736975</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1701.775251950352</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C8" t="n">
-        <v>1701.775251950352</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D8" t="n">
-        <v>1701.775251950352</v>
+        <v>978.649099990522</v>
       </c>
       <c r="E8" t="n">
-        <v>1315.986999352107</v>
+        <v>592.8608473922777</v>
       </c>
       <c r="F8" t="n">
-        <v>905.0010945624999</v>
+        <v>585.9153466430743</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990285</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.375092014473</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>741.102086204384</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1605.620901857739</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2584.171204687567</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5117,7 +5117,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>270.9417306852383</v>
+        <v>653.7478932037369</v>
       </c>
       <c r="C13" t="n">
-        <v>102.0055477573314</v>
+        <v>484.81171027583</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>334.6950708634943</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>334.6950708634943</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>187.8051233655839</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154781</v>
+        <v>653.7478932037369</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5284,46 +5284,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3082.932479700092</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O14" t="n">
-        <v>3585.904950579429</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="17">
@@ -5512,43 +5512,43 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,37 +5609,37 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3002.819529757784</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>3002.819529757784</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>3002.819529757784</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>3002.819529757784</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>3002.819529757784</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>3002.819529757784</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>4466.454649746775</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>4177.351782872418</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>3922.667294666531</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>3633.250124629571</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>3405.260573731553</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>3184.467994588023</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1840.447459262337</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1866.513008862232</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1866.513008862232</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1577.095838825271</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1402.364846140213</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1147.680357934326</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>858.2631878973651</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>630.2736369993478</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>409.4810578558177</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6238,16 +6238,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6469,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6490,25 +6490,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1907.540752584608</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1715.854868411434</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1494.08825298096</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1204.985386106604</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1204.985386106604</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1204.985386106604</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.985386106604</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6718,34 +6718,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,7 +6809,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6818,13 +6818,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1667.240599230347</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1667.240599230347</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6934,49 +6934,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3348.500285847604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3851.472756726941</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.867123575223</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1664.764256700866</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1410.079768494979</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1120.662598458018</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.662598458018</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1797.117834600128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1866.513008862232</v>
+        <v>1425.595798018708</v>
       </c>
       <c r="V40" t="n">
-        <v>1866.513008862232</v>
+        <v>1170.911309812821</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.767516148151</v>
+        <v>1170.911309812821</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.777965250134</v>
+        <v>942.9217589148035</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.985386106604</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871644</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4231.23381931859</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4689.712021827578</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,31 +7748,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>301.0224619425394</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>301.0224619425394</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>301.0224619425394</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>301.0224619425394</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143266</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163093</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>482.6709267727791</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>124.0833809162805</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>139.3563597571375</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>282.7041781993168</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>285.7011105564197</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>226.7688596193101</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>411.0304280898992</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>126.3855966773234</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>29.6188222579199</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-1.428190898877801e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>74.70416023101062</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>82.55208449419938</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>60.06027830989277</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>172.257380959489</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.47418244225588</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.61746628515212</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X34" t="n">
-        <v>83.01406815846337</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>77.41759119918781</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.0973701719829</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>170.0896214080882</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>75.90496054965092</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>108.0400430627559</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="F2" t="n">
-        <v>496352.2336087291</v>
+        <v>496352.233608729</v>
       </c>
       <c r="G2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="I2" t="n">
+        <v>496352.2336087287</v>
+      </c>
+      <c r="J2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="I2" t="n">
-        <v>496352.2336087289</v>
-      </c>
-      <c r="J2" t="n">
-        <v>496352.2336087286</v>
       </c>
       <c r="K2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="M2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="N2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="O2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="P2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
@@ -26459,7 +26459,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709185</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351882.4475052067</v>
+        <v>-351882.4475052068</v>
       </c>
       <c r="C6" t="n">
         <v>238085.4317093381</v>
       </c>
       <c r="D6" t="n">
-        <v>238085.4317093377</v>
+        <v>238085.4317093381</v>
       </c>
       <c r="E6" t="n">
-        <v>-349028.3066354833</v>
+        <v>-349700.2615377412</v>
       </c>
       <c r="F6" t="n">
-        <v>378349.1073579235</v>
+        <v>377677.1524556656</v>
       </c>
       <c r="G6" t="n">
-        <v>378349.1073579235</v>
+        <v>377677.1524556655</v>
       </c>
       <c r="H6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556653</v>
       </c>
       <c r="I6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556652</v>
       </c>
       <c r="J6" t="n">
-        <v>201925.8881653303</v>
+        <v>201253.9332630725</v>
       </c>
       <c r="K6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556655</v>
       </c>
       <c r="L6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556656</v>
       </c>
       <c r="M6" t="n">
-        <v>248706.7925189787</v>
+        <v>248034.8376167207</v>
       </c>
       <c r="N6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556655</v>
       </c>
       <c r="O6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556654</v>
       </c>
       <c r="P6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556651</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>520.2256578503744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>520.2256578503747</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545554</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>31.48572239862722</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.983128723806658</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>71.89960204370422</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.49548950841407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>306.5409218282426</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>67.84537072619531</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>54.2933881245433</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>200.5108049457779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>47.09072741529934</v>
+        <v>362.9856178555307</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>112.4847882031431</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.5731239040509</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>461.274667471681</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>691.658195170049</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>681.4661644186887</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>741.2912249487518</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36141,10 +36141,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36606,10 +36606,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>581.9206576708319</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37314,22 +37314,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>625.530845838682</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>866.6205424822314</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,16 +37557,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M44" t="n">
-        <v>665.3067125075502</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1614469.227459501</v>
+        <v>1617874.718583949</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>317.7603911582219</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>143.9481875210546</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>131.1019666843681</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9387992945997</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.67223366779493</v>
+        <v>27.457978586098</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>50.79855216526428</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>5.983388191319604</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>177.9498744325401</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247835</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>91.32164802801761</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>191.0001693352793</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.69473660442846</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>18.26879610204052</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.02146927219733</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292724</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.26879610203984</v>
+        <v>58.98967089588414</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.380068175847634</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>154.6639169383109</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>67.33742371513297</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>2.125851046817078</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>116.1222167975246</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247882</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0466642754499</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>37.38100496017532</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>395.781978709989</v>
       </c>
       <c r="D2" t="n">
-        <v>951.4492202526051</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>951.4492202526051</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>944.5037195034016</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>526.5399114015885</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>199.3451914375913</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.375564375168</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.375564375168</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D5" t="n">
-        <v>796.1098657684179</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E5" t="n">
-        <v>410.3216131701736</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>403.3761124209702</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.97540443929</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.97540443929</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084171</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="C7" t="n">
-        <v>331.2032503805102</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="D7" t="n">
-        <v>181.0866109681745</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="E7" t="n">
-        <v>181.0866109681745</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="F7" t="n">
-        <v>181.0866109681745</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="G7" t="n">
-        <v>181.0866109681745</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="H7" t="n">
-        <v>181.0866109681745</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.914798597272</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>978.649099990522</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>592.8608473922777</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>585.9153466430743</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>741.102086204384</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L11" t="n">
-        <v>1605.620901857739</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2584.171204687567</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075804</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432983</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973205</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161936</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549423</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494868</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763718</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468574</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008795</v>
@@ -5138,34 +5138,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7478932037369</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>484.81171027583</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>334.6950708634943</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>334.6950708634943</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>187.8051233655839</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>874.540472347267</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>874.540472347267</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.7478932037369</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>3189.3614801067</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986037</v>
+        <v>3610.459375831137</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432983</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,22 +5387,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.1112734427666</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1937.890136708704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1746.20425253553</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1524.437637105056</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1235.3347702307</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.959038351514</v>
+        <v>980.6502820248129</v>
       </c>
       <c r="W16" t="n">
-        <v>811.5418683145538</v>
+        <v>691.2331119878522</v>
       </c>
       <c r="X16" t="n">
-        <v>583.5523174165364</v>
+        <v>463.2435610898349</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.7597382730063</v>
+        <v>242.4509819463048</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,37 +5609,37 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5718,7 +5718,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1840.447459262337</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2373.979363934262</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.758180993044</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,52 +5989,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>416.1091927888612</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>153.1584781576846</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839441</v>
@@ -6192,7 +6192,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423046</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C28" t="n">
-        <v>260.9043113423046</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9043113423046</v>
+        <v>469.7393447290445</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6481,13 +6481,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6533,13 +6533,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>270.9417306852383</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>102.0055477573314</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>102.0055477573314</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>102.0055477573314</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>102.0055477573314</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154781</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.9043113423046</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C37" t="n">
-        <v>260.9043113423046</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D37" t="n">
-        <v>260.9043113423046</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E37" t="n">
-        <v>260.9043113423046</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>260.9043113423046</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>260.9043113423046</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7128,19 +7128,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>1025.484245566078</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>1023.336921276364</v>
       </c>
     </row>
     <row r="38">
@@ -7153,49 +7153,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>953.47282781253</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1404.507041060939</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117414</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,7 +7283,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7292,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
         <v>95.56103444839442</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T40" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1425.595798018708</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V40" t="n">
-        <v>1170.911309812821</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W40" t="n">
-        <v>1170.911309812821</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X40" t="n">
-        <v>942.9217589148035</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y40" t="n">
-        <v>722.1291797712734</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7417,19 +7417,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3987.344609994335</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4382.118976351513</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7481,10 +7481,10 @@
         <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089898</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7493,16 +7493,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3517.878731871644</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4231.23381931859</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4689.712021827578</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.592772497321</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216194</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549427</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494872</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763722</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089903</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468579</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142069</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635549</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487876</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282343</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>301.0224619425394</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C46" t="n">
-        <v>301.0224619425394</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D46" t="n">
-        <v>301.0224619425394</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E46" t="n">
-        <v>301.0224619425394</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7809,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.657581931531</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1220.870226851287</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W46" t="n">
-        <v>931.4530568143266</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X46" t="n">
-        <v>703.4635059163093</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y46" t="n">
-        <v>482.6709267727791</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>124.0833809162805</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,10 +8701,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>67.5366377670415</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-9.485745522397337e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>139.3563597571375</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>257.9017284501163</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>285.7011105564197</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.1140909277314</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>354.4836849406614</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>169.5026663584953</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>23.80814351663682</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>29.6188222579199</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.428190898877801e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>74.70416023101062</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>34.70948605375781</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>82.55208449419938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>70.66335656800679</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>109.0043389868309</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.14213605696617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.1651665445293</v>
+        <v>87.44429175068504</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>159.6457400831806</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>63.92073641378389</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>77.41759119918781</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>216.4588023052777</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.1421360569658</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>170.0896214080882</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.457529283320781</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.78531590648736</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>108.0400430627559</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631243</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="F2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="F2" t="n">
-        <v>496352.233608729</v>
       </c>
       <c r="G2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="I2" t="n">
         <v>496352.2336087288</v>
-      </c>
-      <c r="I2" t="n">
-        <v>496352.2336087287</v>
       </c>
       <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
+        <v>496352.2336087288</v>
+      </c>
+      <c r="L2" t="n">
         <v>496352.2336087289</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>496352.233608729</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="N2" t="n">
-        <v>496352.233608729</v>
       </c>
       <c r="O2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="P2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351882.4475052068</v>
+        <v>-351882.4475052069</v>
       </c>
       <c r="C6" t="n">
         <v>238085.4317093381</v>
@@ -26530,40 +26530,40 @@
         <v>238085.4317093381</v>
       </c>
       <c r="E6" t="n">
-        <v>-349700.2615377412</v>
+        <v>-349095.5021257091</v>
       </c>
       <c r="F6" t="n">
-        <v>377677.1524556656</v>
+        <v>378281.9118676976</v>
       </c>
       <c r="G6" t="n">
-        <v>377677.1524556655</v>
+        <v>378281.9118676977</v>
       </c>
       <c r="H6" t="n">
-        <v>377677.1524556653</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="I6" t="n">
-        <v>377677.1524556652</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="J6" t="n">
-        <v>201253.9332630725</v>
+        <v>201858.6926751045</v>
       </c>
       <c r="K6" t="n">
-        <v>377677.1524556655</v>
+        <v>378281.9118676974</v>
       </c>
       <c r="L6" t="n">
-        <v>377677.1524556656</v>
+        <v>378281.9118676976</v>
       </c>
       <c r="M6" t="n">
-        <v>248034.8376167207</v>
+        <v>248639.5970287528</v>
       </c>
       <c r="N6" t="n">
-        <v>377677.1524556655</v>
+        <v>378281.9118676974</v>
       </c>
       <c r="O6" t="n">
-        <v>377677.1524556654</v>
+        <v>378281.9118676977</v>
       </c>
       <c r="P6" t="n">
-        <v>377677.1524556651</v>
+        <v>378281.9118676976</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26773,13 +26773,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>36.92265046246109</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>7.983128723806658</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>250.8284033878937</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>67.84537072619531</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>54.2933881245433</v>
+        <v>107.5076432062402</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>362.9856178555307</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>168.4323246176519</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>108.5731239040509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>461.274667471681</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>691.658195170049</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>656.6637146694883</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>741.2912249487518</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36141,10 +36141,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>323.786018525724</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200636</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37317,19 +37317,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>862.5366858288805</v>
       </c>
       <c r="P35" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>506.6939529138959</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>274.6024483203563</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
